--- a/Software Specification/RTM/RTM.xlsx
+++ b/Software Specification/RTM/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital_Elevator\Software Specification\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4769D-649E-4673-AFD2-43A01B9F4FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6623039F-6BAD-4B73-88AD-A51B25BBAFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6C68D336-FBF6-4C75-84CC-7B5C006C0E24}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Digital Elevator_RTM</t>
   </si>
@@ -46,21 +46,6 @@
   </si>
   <si>
     <t>SRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIGELV _CYRS_01_V1.0</t>
-  </si>
-  <si>
-    <t>DIGELV _CYRS_02_V1.0</t>
-  </si>
-  <si>
-    <t>DIGELV _CYRS_03_V1.0</t>
-  </si>
-  <si>
-    <t>DIGELV _CYRS_04_V1.0</t>
-  </si>
-  <si>
-    <t>DIGELV _CYRS_05_V1.0</t>
   </si>
   <si>
     <t>[DIGELV_SRS_001_V1.0]
@@ -92,49 +77,79 @@
     <t>HIS</t>
   </si>
   <si>
-    <t>Req _ DIGELV _HSI_01_V1.0</t>
-  </si>
-  <si>
-    <t>Req _ DIGELV _ HSI _02_V1.0</t>
-  </si>
-  <si>
-    <t>Req _ DIGELV _ HSI _03_V1.0</t>
-  </si>
-  <si>
-    <t>Req _ DIGELV _ HSI _04_V1.0</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">[DIGELV _CRS_01_V1.0]  </t>
-  </si>
-  <si>
     <t xml:space="preserve">[DIGELV _CRS_02_V1.0]  </t>
   </si>
   <si>
     <t xml:space="preserve">[DIGELV _CRS_03_V1.0]  </t>
   </si>
   <si>
-    <t xml:space="preserve">[DIGELV _CRS_04_V1.0]  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DIGELV _CRS_05_V1.0]  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DIGELV _CRS_08_V1.0]  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DIGELV _CRS_09_V1.0]  </t>
-  </si>
-  <si>
     <t xml:space="preserve">[DIGELV _CRS_10_V1.0]  </t>
   </si>
   <si>
-    <t xml:space="preserve">[DIGELV _CRS_06_V1.0]  </t>
-  </si>
-  <si>
     <t xml:space="preserve">[DIGELV _CRS_07_V1.0]  </t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_02_V1.0_IMP(SW)</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_01_V1.0_IMP(SW)</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_03_V1.0_IMP(SW)</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_04_V1.0_IMP(SW)</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_05_V1.0_IMP(HW)</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_06_V1.0_IMP(HW)</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_07_V1.0_IMP(SW)</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_08_V1.0_IMP(HW)</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_09_V1.0_IMP(HW)</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_010_V1.0_IMP(SW)</t>
+  </si>
+  <si>
+    <t>[DIGELV _CRS_01_V1.0]</t>
+  </si>
+  <si>
+    <t>[DIGELV _CRS_05_V1.0]</t>
+  </si>
+  <si>
+    <t>[DIGELV _CRS_09_V1.0]</t>
+  </si>
+  <si>
+    <t>[DIGELV _CRS_08_V1.0]</t>
+  </si>
+  <si>
+    <t>[DIGELV _CRS_07_V1.0]</t>
+  </si>
+  <si>
+    <t>[DIGELV _CRS_04_V1.0]                                                [DIGELV _CRS_06_V1.0]</t>
+  </si>
+  <si>
+    <t>Req _ DIGELV _HSI_01_V1.2</t>
+  </si>
+  <si>
+    <t>Req _ DIGELV _ HSI _02_V1.2</t>
+  </si>
+  <si>
+    <t>Req _ DIGELV _ HSI _03_V1.2</t>
+  </si>
+  <si>
+    <t>Req _ DIGELV _ HSI _04_V1.2</t>
   </si>
 </sst>
 </file>
@@ -227,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,26 +265,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,16 +663,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A441A6F4-93EC-4962-B844-0F7E31CE1CB0}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="0.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
@@ -664,161 +682,169 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="9"/>
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -827,52 +853,54 @@
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="13"/>
+      <c r="G11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -890,7 +918,25 @@
       <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="25">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G7:H10"/>
     <mergeCell ref="G11:H12"/>
@@ -898,19 +944,6 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Software Specification/RTM/RTM.xlsx
+++ b/Software Specification/RTM/RTM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital_Elevator\Software Specification\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6623039F-6BAD-4B73-88AD-A51B25BBAFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3AC07-42C2-4AFA-A361-A00C958D661E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6C68D336-FBF6-4C75-84CC-7B5C006C0E24}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Digital Elevator_RTM</t>
   </si>
@@ -48,32 +48,6 @@
     <t>SRS</t>
   </si>
   <si>
-    <t>[DIGELV_SRS_001_V1.0]
-[DIGELV_SRS_002_V1.0]</t>
-  </si>
-  <si>
-    <t>[DIGELV_SRS_003_V1.0]
-[DIGELV_SRS_004_V1.0]
-[DIGELV_SRS_005_V1.0]
-[DIGELV_SRS_006_V1.0]
-[DIGELV_SRS_007_V1.0]
-[DIGELV_SRS_007_V1.0]
-[DIGELV_SRS_009_V1.0]
-[DIGELV_SRS_010_V1.0]
-[DIGELV_SRS_011_V1.0]</t>
-  </si>
-  <si>
-    <t>[DIGELV_SRS_012_V1.0]
-[DIGELV_SRS_013_V1.0]</t>
-  </si>
-  <si>
-    <t>[DIGELV_SRS_014_V1.0]
-[DIGELV_SRS_015_V1.0]</t>
-  </si>
-  <si>
-    <t>[DIGELV_SRS_016_V1.0]</t>
-  </si>
-  <si>
     <t>HIS</t>
   </si>
   <si>
@@ -150,6 +124,34 @@
   </si>
   <si>
     <t>Req _ DIGELV _ HSI _04_V1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Req_DIGELV_SRS_012_V1.0]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Req_DIGELV_SRS_003_V1.0]
+[Req_DIGELV_SRS_004_V1.0]
+[Req_DIGELV_SRS_005_V1.0] [Req_DIGELV_SRS_013_V1.0]
+</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_014_V1.0]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_015_V1.0] [Req_DIGELV_SRS_016_V1.0]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_001_V1.0]
+[Req_DIGELV_SRS_002_V1.0]                                                                                     [Req_DIGELV_SRS_006_V1.0]
+[Req_DIGELV_SRS_007_V1.0]
+[Req_DIGELV_SRS_007_V1.0]
+[Req_DIGELV_SRS_009_V1.0]
+[Req_DIGELV_SRS_010_V1.0]
+[Req_DIGELV_SRS_011_V1.0]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_008_V1.0]</t>
   </si>
 </sst>
 </file>
@@ -242,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +290,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -313,20 +321,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>986117</xdr:colOff>
+      <xdr:colOff>1154205</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930C1E52-C1B1-4ED6-8B17-76ECF279A01E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA028C2-3890-4359-82D4-2DB37075F8CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -347,8 +355,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11206" y="0"/>
-          <a:ext cx="1210235" cy="358588"/>
+          <a:off x="11206" y="1"/>
+          <a:ext cx="1378323" cy="369794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A441A6F4-93EC-4962-B844-0F7E31CE1CB0}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +682,7 @@
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="0.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
@@ -718,43 +726,43 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
@@ -763,18 +771,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="13" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -783,18 +791,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="E7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -803,14 +811,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
@@ -819,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -835,34 +845,36 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -871,13 +883,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -887,18 +901,18 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -918,25 +932,28 @@
       <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="28">
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G7:H10"/>
     <mergeCell ref="G11:H12"/>

--- a/Software Specification/RTM/RTM.xlsx
+++ b/Software Specification/RTM/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital_Elevator\Software Specification\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3AC07-42C2-4AFA-A361-A00C958D661E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589A8B64-8965-4FF1-8D8A-69E671C90B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6C68D336-FBF6-4C75-84CC-7B5C006C0E24}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Digital Elevator_RTM</t>
   </si>
@@ -48,9 +48,6 @@
     <t>SRS</t>
   </si>
   <si>
-    <t>HIS</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -112,18 +109,6 @@
   </si>
   <si>
     <t>[DIGELV _CRS_04_V1.0]                                                [DIGELV _CRS_06_V1.0]</t>
-  </si>
-  <si>
-    <t>Req _ DIGELV _HSI_01_V1.2</t>
-  </si>
-  <si>
-    <t>Req _ DIGELV _ HSI _02_V1.2</t>
-  </si>
-  <si>
-    <t>Req _ DIGELV _ HSI _03_V1.2</t>
-  </si>
-  <si>
-    <t>Req _ DIGELV _ HSI _04_V1.2</t>
   </si>
   <si>
     <t xml:space="preserve">[Req_DIGELV_SRS_012_V1.0]
@@ -152,6 +137,21 @@
   </si>
   <si>
     <t>[Req_DIGELV_SRS_008_V1.0]</t>
+  </si>
+  <si>
+    <t>HSI</t>
+  </si>
+  <si>
+    <t>Req _ DIGELV _ HSI _03_V1.4</t>
+  </si>
+  <si>
+    <t>Req _ DIGELV _HSI_02_V1.2</t>
+  </si>
+  <si>
+    <t>Req _ DIGELV _ HSI _04_V1.4</t>
+  </si>
+  <si>
+    <t>Req _ DIGELV _ HSI _05_V1.3</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -240,11 +240,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,44 +287,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A441A6F4-93EC-4962-B844-0F7E31CE1CB0}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,235 +738,255 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13" t="s">
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="17" t="s">
+      <c r="C13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="F13" s="24"/>
+      <c r="G13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="17"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -924,24 +994,18 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F5"/>
+  <mergeCells count="26">
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
@@ -950,17 +1014,21 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F10"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E4:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Software Specification/RTM/RTM.xlsx
+++ b/Software Specification/RTM/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital_Elevator\Software Specification\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589A8B64-8965-4FF1-8D8A-69E671C90B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C8083-E390-4E28-B35C-E309D47CBF32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6C68D336-FBF6-4C75-84CC-7B5C006C0E24}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Digital Elevator_RTM</t>
   </si>
@@ -48,9 +48,6 @@
     <t>SRS</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve">[DIGELV _CRS_02_V1.0]  </t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>Req_DIGELV_CYRS_07_V1.0_IMP(SW)</t>
   </si>
   <si>
-    <t>Req_DIGELV_CYRS_08_V1.0_IMP(HW)</t>
-  </si>
-  <si>
-    <t>Req_DIGELV_CYRS_09_V1.0_IMP(HW)</t>
-  </si>
-  <si>
     <t>Req_DIGELV_CYRS_010_V1.0_IMP(SW)</t>
   </si>
   <si>
@@ -105,40 +96,12 @@
     <t>[DIGELV _CRS_08_V1.0]</t>
   </si>
   <si>
-    <t>[DIGELV _CRS_07_V1.0]</t>
-  </si>
-  <si>
     <t>[DIGELV _CRS_04_V1.0]                                                [DIGELV _CRS_06_V1.0]</t>
   </si>
   <si>
-    <t xml:space="preserve">[Req_DIGELV_SRS_012_V1.0]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Req_DIGELV_SRS_003_V1.0]
-[Req_DIGELV_SRS_004_V1.0]
-[Req_DIGELV_SRS_005_V1.0] [Req_DIGELV_SRS_013_V1.0]
-</t>
-  </si>
-  <si>
-    <t>[Req_DIGELV_SRS_014_V1.0]</t>
-  </si>
-  <si>
     <t>[Req_DIGELV_SRS_015_V1.0] [Req_DIGELV_SRS_016_V1.0]</t>
   </si>
   <si>
-    <t>[Req_DIGELV_SRS_001_V1.0]
-[Req_DIGELV_SRS_002_V1.0]                                                                                     [Req_DIGELV_SRS_006_V1.0]
-[Req_DIGELV_SRS_007_V1.0]
-[Req_DIGELV_SRS_007_V1.0]
-[Req_DIGELV_SRS_009_V1.0]
-[Req_DIGELV_SRS_010_V1.0]
-[Req_DIGELV_SRS_011_V1.0]</t>
-  </si>
-  <si>
-    <t>[Req_DIGELV_SRS_008_V1.0]</t>
-  </si>
-  <si>
     <t>HSI</t>
   </si>
   <si>
@@ -152,6 +115,39 @@
   </si>
   <si>
     <t>Req _ DIGELV _ HSI _05_V1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [Req_DIGELV_SRS_001_V1.1]  [Req_DIGELV_SRS_002_V1.1]                                                                      </t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_003_V1.1]
+[Req_DIGELV_SRS_004_V1.1]
+[Req_DIGELV_SRS_006_V1.1] [Req_DIGELV_SRS_007_V1.1]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_008_V1.1]
+[Req_DIGELV_SRS_009_V1.1] [Req_DIGELV_SRS_010_V1.1]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_011_V1.1] [Req_DIGELV_SRS_012_V1.1]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_016_V1.0]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_017_V1.0]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_018_V1.0] [Req_DIGELV_SRS_019_V1.0]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_020_V1.0] [Req_DIGELV_SRS_021_V1.0] [Req_DIGELV_SRS_022_V1.0] [Req_DIGELV_SRS_023_V1.0] [Req_DIGELV_SRS_024_V1.0] [Req_DIGELV_SRS_025_V1.0]</t>
+  </si>
+  <si>
+    <t>[Req_DIGELV_SRS_013_V1.0] [Req_DIGELV_SRS_014_V1.0] [Req_DIGELV_SRS_015_V1.0]</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_CYRS_08_V1.0_IMP(HW) Req_DIGELV_CYRS_09_V1.0_IMP(HW)</t>
   </si>
 </sst>
 </file>
@@ -273,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,9 +295,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -314,6 +307,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -323,28 +331,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A441A6F4-93EC-4962-B844-0F7E31CE1CB0}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,22 +730,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -767,224 +757,224 @@
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="19"/>
       <c r="G4" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="B11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1002,33 +992,35 @@
       <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C13:D13"/>
+  <mergeCells count="28">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E4:F6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="E7:F10"/>
     <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G4:H5"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E4:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Software Specification/RTM/RTM.xlsx
+++ b/Software Specification/RTM/RTM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital_Elevator\Software Specification\RTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C8083-E390-4E28-B35C-E309D47CBF32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B09E913-C74D-4D66-83F4-868722EBAEE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6C68D336-FBF6-4C75-84CC-7B5C006C0E24}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Digital Elevator_RTM</t>
   </si>
@@ -148,6 +148,36 @@
   </si>
   <si>
     <t>Req_DIGELV_CYRS_08_V1.0_IMP(HW) Req_DIGELV_CYRS_09_V1.0_IMP(HW)</t>
+  </si>
+  <si>
+    <t>GDD</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_GDD_011_V1.2</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_GDD_017_V1.1</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_GDD_020_V1.1 Req_DIGELV_GDD_009_V1.2 Req_DIGELV_GDD_010_V1.1</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_GDD_009_V1.2 Req_DIGELV_GDD_021_V1.1 Req_DIGELV_GDD_020_V1.1</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_GDD_023_V1.1 Req_DIGELV_GDD_014_V1.1 Req_DIGELV_GDD_015_V1.1 Req_DIGELV_GDD_006_V1.2 Req_DIGELV_GDD_013_V1.1</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_GDD_023_V1.1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_GDD_021_V1.1</t>
+  </si>
+  <si>
+    <t>Req_DIGELV_GDD_020_V1.1</t>
   </si>
 </sst>
 </file>
@@ -269,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,9 +328,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -313,25 +340,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,7 +748,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,27 +761,28 @@
     <col min="6" max="6" width="7.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -757,20 +794,22 @@
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
@@ -779,19 +818,21 @@
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -801,17 +842,19 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -821,17 +864,19 @@
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="15" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -841,39 +886,43 @@
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="24"/>
+      <c r="I7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -883,17 +932,19 @@
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -903,55 +954,59 @@
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="17" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="19"/>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="17" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -961,19 +1016,21 @@
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -992,22 +1049,8 @@
       <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E4:F6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="29">
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G6:H6"/>
@@ -1021,6 +1064,21 @@
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E4:F6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
